--- a/Docs/ISIS1225 - Tablas de Datos Lab 7 - Equipo 2.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 7 - Equipo 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linds\OneDrive\Escritorio\Lab7\LabCollision-S07-G10\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maicol -PC\Documents\Laboratorio 7 Colisiones\LabCollision-S07-G10\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8078A3DF-EDF8-4630-8D3B-0EA70F6D7E8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28270B74-9E4F-4C39-BC95-24A08DB1249D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="767" activeTab="3" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab7" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-419"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -562,7 +562,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="es-419"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -573,6 +573,15 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>274023.46399999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>274027.09700000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274039.67499999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -582,6 +591,15 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>139030.59299999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148412.37599999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>207820.663</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -669,7 +687,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="es-419"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -680,6 +698,15 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>274020.21299999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>274021.42499999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274021.38900000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -689,6 +716,15 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>155861.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174365.693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192689.98699999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -792,7 +828,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-419"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -830,7 +866,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -914,7 +950,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="es-419"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -952,7 +988,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -994,7 +1030,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-419"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1031,7 +1067,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-419"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1181,7 +1217,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="es-419"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1192,6 +1228,15 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>274023.46399999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>274027.09700000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274039.67499999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1201,6 +1246,15 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>139030.59299999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148412.37599999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>207820.663</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1307,7 +1361,7 @@
                             <a:cs typeface="+mn-cs"/>
                           </a:defRPr>
                         </a:pPr>
-                        <a:endParaRPr lang="es-CO"/>
+                        <a:endParaRPr lang="es-419"/>
                       </a:p>
                     </c:txPr>
                   </c:trendlineLbl>
@@ -1324,6 +1378,15 @@
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>274020.21299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>274021.42499999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>274021.38900000002</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:xVal>
@@ -1339,6 +1402,15 @@
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>155861.75</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>174365.693</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>192689.98699999999</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -1453,7 +1525,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -1555,7 +1627,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1590,7 +1662,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-419"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1606,7 +1678,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-419"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1755,7 +1827,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="es-419"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1766,6 +1838,15 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>274020.21299999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>274021.42499999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274021.38900000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1775,6 +1856,15 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>155861.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174365.693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192689.98699999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1882,7 +1972,7 @@
                             <a:cs typeface="+mn-cs"/>
                           </a:defRPr>
                         </a:pPr>
-                        <a:endParaRPr lang="es-CO"/>
+                        <a:endParaRPr lang="es-419"/>
                       </a:p>
                     </c:txPr>
                   </c:trendlineLbl>
@@ -1899,6 +1989,15 @@
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>274023.46399999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>274027.09700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>274039.67499999999</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:xVal>
@@ -1914,6 +2013,15 @@
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>139030.59299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>148412.37599999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>207820.663</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2028,7 +2136,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -2130,7 +2238,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-419"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -2165,7 +2273,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-419"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2181,7 +2289,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-419"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2755,7 +2863,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AD1D89BC-E205-4B7E-BD5C-EC65AD295EA1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="74" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2766,7 +2874,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{850A538D-B5CB-40B8-BFBA-2E38D399DC03}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2777,7 +2885,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8658225" cy="6276975"/>
+    <xdr:ext cx="9322594" cy="6084094"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2810,7 +2918,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663214" cy="6277429"/>
+    <xdr:ext cx="9319054" cy="6088277"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -2843,7 +2951,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663214" cy="6277429"/>
+    <xdr:ext cx="9319054" cy="6088277"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -3195,25 +3303,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3224,35 +3332,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2">
+        <v>274023.46399999998</v>
+      </c>
+      <c r="C3" s="2">
+        <v>139030.59299999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>274027.09700000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>148412.37599999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.8</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2">
+        <v>274039.67499999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>207820.663</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -3263,28 +3383,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2">
+        <v>274020.21299999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>155861.75</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2">
+        <v>274021.42499999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>174365.693</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2">
+        <v>274021.38900000002</v>
+      </c>
+      <c r="C12" s="2">
+        <v>192689.98699999999</v>
+      </c>
     </row>
-    <row r="21" ht="14.7" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -3299,6 +3431,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -3509,22 +3656,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93C2AFC4-FCA8-4617-A6BD-EF7AAAEEB795}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3541,29 +3698,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>